--- a/inst/apps/validator/www/data.xlsx
+++ b/inst/apps/validator/www/data.xlsx
@@ -1,23 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahsherrod/Documents/MooreResearchRepository/One4All/code/validator/www/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahsherrod/Documents/MooreResearchRepository/One4All/inst/apps/validator/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F0A05D-0B4B-FC4C-B23E-783EE0A81C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042E05A2-BB25-0045-AFF5-B9AF1496EF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36500" yWindow="-2240" windowWidth="36480" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="methodology" sheetId="2" r:id="rId1"/>
     <sheet name="samples" sheetId="5" r:id="rId2"/>
     <sheet name="particles" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -195,9 +208,6 @@
     <t>SpatialFile</t>
   </si>
   <si>
-    <t>Blank</t>
-  </si>
-  <si>
     <t>Spike</t>
   </si>
   <si>
@@ -502,6 +512,9 @@
   </si>
   <si>
     <t>Sieving</t>
+  </si>
+  <si>
+    <t>Lab Procedural Blank</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1229,7 @@
         <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1276,39 +1289,39 @@
         <v>50</v>
       </c>
       <c r="V1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W1" t="s">
         <v>53</v>
       </c>
       <c r="X1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z1" t="s">
         <v>154</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>155</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>156</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>157</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
         <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1332,7 +1345,7 @@
         <v>500</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2">
         <v>25</v>
@@ -1344,7 +1357,7 @@
         <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P2" t="s">
         <v>17</v>
@@ -1373,13 +1386,13 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
         <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -1403,7 +1416,7 @@
         <v>212</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L3">
         <v>25</v>
@@ -1415,7 +1428,7 @@
         <v>14</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s">
         <v>17</v>
@@ -1444,13 +1457,13 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
         <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -1474,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4">
         <v>25</v>
@@ -1486,7 +1499,7 @@
         <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s">
         <v>17</v>
@@ -1546,9 +1559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1563,7 +1576,7 @@
         <v>54</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
         <v>36</v>
@@ -1602,18 +1615,18 @@
         <v>56</v>
       </c>
       <c r="O1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -1640,27 +1653,27 @@
         <v>0.5</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="L2" t="s">
         <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -1687,27 +1700,27 @@
         <v>0.5</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
         <v>47</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
         <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1734,27 +1747,27 @@
         <v>0.5</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s">
         <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s">
         <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -1781,27 +1794,27 @@
         <v>0.5</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L5" t="s">
         <v>47</v>
       </c>
       <c r="M5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
         <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -1828,27 +1841,27 @@
         <v>0.5</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s">
         <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N6" t="s">
         <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -1875,27 +1888,27 @@
         <v>0.5</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="L7" t="s">
         <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N7" t="s">
         <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -1922,27 +1935,27 @@
         <v>0.5</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="L8" t="s">
         <v>47</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N8" t="s">
         <v>52</v>
       </c>
       <c r="O8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -1969,27 +1982,27 @@
         <v>0.5</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="L9" t="s">
         <v>47</v>
       </c>
       <c r="M9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N9" t="s">
         <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -2016,27 +2029,27 @@
         <v>0.5</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="L10" t="s">
         <v>47</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N10" t="s">
         <v>52</v>
       </c>
       <c r="O10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -2063,19 +2076,19 @@
         <v>0.5</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="L11" t="s">
         <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N11" t="s">
         <v>52</v>
       </c>
       <c r="O11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2091,7 +2104,7 @@
       <formula1>1</formula1>
       <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:L11" xr:uid="{00000000-0002-0000-0400-00000E000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11 K3:K6" xr:uid="{00000000-0002-0000-0400-00000E000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -2132,13 +2145,13 @@
         <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
         <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I1" t="s">
         <v>26</v>
@@ -2171,10 +2184,10 @@
         <v>35</v>
       </c>
       <c r="S1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" t="s">
         <v>92</v>
-      </c>
-      <c r="T1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -2182,16 +2195,16 @@
         <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
         <v>79</v>
       </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2">
         <v>0.94494035192419301</v>
@@ -2200,7 +2213,7 @@
         <v>45402</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L2">
         <v>485.97722286464398</v>
@@ -2235,16 +2248,16 @@
         <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
         <v>79</v>
       </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3">
         <v>0.75118641180652501</v>
@@ -2253,7 +2266,7 @@
         <v>45402</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L3">
         <v>60.355339059327399</v>
@@ -2288,16 +2301,16 @@
         <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
         <v>79</v>
       </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4">
         <v>0.94865167853830701</v>
@@ -2306,7 +2319,7 @@
         <v>45402</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L4">
         <v>329.13812651491099</v>
@@ -2341,16 +2354,16 @@
         <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
         <v>79</v>
       </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5">
         <v>0.91832487808507202</v>
@@ -2359,7 +2372,7 @@
         <v>45402</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L5">
         <v>741.32743909472003</v>
@@ -2394,16 +2407,16 @@
         <v>236</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6">
         <v>0.70761799222725397</v>
@@ -2412,7 +2425,7 @@
         <v>45402</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L6">
         <v>95.710678118654798</v>
@@ -2447,16 +2460,16 @@
         <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
         <v>79</v>
       </c>
-      <c r="D7" t="s">
-        <v>80</v>
-      </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7">
         <v>0.75289469376630702</v>
@@ -2465,7 +2478,7 @@
         <v>45402</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L7">
         <v>170.77379737113301</v>
@@ -2500,16 +2513,16 @@
         <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
         <v>79</v>
       </c>
-      <c r="D8" t="s">
-        <v>80</v>
-      </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8">
         <v>0.76431351967347905</v>
@@ -2518,7 +2531,7 @@
         <v>45402</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L8">
         <v>80.901699437494798</v>
@@ -2553,16 +2566,16 @@
         <v>228</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
         <v>79</v>
       </c>
-      <c r="D9" t="s">
-        <v>80</v>
-      </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9">
         <v>0.75596670700586099</v>
@@ -2571,7 +2584,7 @@
         <v>45402</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L9">
         <v>150</v>
@@ -2606,16 +2619,16 @@
         <v>210</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
         <v>79</v>
       </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10">
         <v>0.68116389713712699</v>
@@ -2624,7 +2637,7 @@
         <v>45402</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L10">
         <v>159.629120178363</v>
@@ -2659,16 +2672,16 @@
         <v>239</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
         <v>79</v>
       </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11">
         <v>0.81293267064008501</v>
@@ -2677,7 +2690,7 @@
         <v>45402</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L11">
         <v>159.629120178363</v>
@@ -2712,16 +2725,16 @@
         <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
         <v>79</v>
       </c>
-      <c r="D12" t="s">
-        <v>80</v>
-      </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12">
         <v>0.71405253213303799</v>
@@ -2730,7 +2743,7 @@
         <v>45402</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L12">
         <v>60.355339059327399</v>
@@ -2765,16 +2778,16 @@
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
         <v>79</v>
       </c>
-      <c r="D13" t="s">
-        <v>80</v>
-      </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13">
         <v>0.71302903999159495</v>
@@ -2783,7 +2796,7 @@
         <v>45402</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L13">
         <v>95.710678118654798</v>
@@ -2818,16 +2831,16 @@
         <v>189</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
         <v>79</v>
       </c>
-      <c r="D14" t="s">
-        <v>80</v>
-      </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14">
         <v>0.74451465097452096</v>
@@ -2836,7 +2849,7 @@
         <v>45402</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L14">
         <v>104.05694150421</v>
@@ -2871,16 +2884,16 @@
         <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
         <v>79</v>
       </c>
-      <c r="D15" t="s">
-        <v>80</v>
-      </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15">
         <v>0.93829267665733895</v>
@@ -2889,7 +2902,7 @@
         <v>45402</v>
       </c>
       <c r="I15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L15">
         <v>686.91011474368599</v>
@@ -2924,16 +2937,16 @@
         <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
         <v>79</v>
       </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16">
         <v>0.73726370081825798</v>
@@ -2942,7 +2955,7 @@
         <v>45402</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L16">
         <v>177.06906325745601</v>
@@ -2977,16 +2990,16 @@
         <v>208</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
         <v>79</v>
       </c>
-      <c r="D17" t="s">
-        <v>80</v>
-      </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17">
         <v>0.66833144208193696</v>
@@ -2995,7 +3008,7 @@
         <v>45402</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L17">
         <v>80.901699437494798</v>
@@ -3030,16 +3043,16 @@
         <v>230</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
         <v>79</v>
       </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F18">
         <v>0.723350590292417</v>
@@ -3048,7 +3061,7 @@
         <v>45402</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L18">
         <v>150</v>
@@ -3083,16 +3096,16 @@
         <v>259</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19">
         <v>0.76651398624782996</v>
@@ -3101,7 +3114,7 @@
         <v>45402</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L19">
         <v>80.901699437494798</v>
@@ -3136,16 +3149,16 @@
         <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
         <v>79</v>
       </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20">
         <v>0.94278286489440499</v>
@@ -3154,7 +3167,7 @@
         <v>45402</v>
       </c>
       <c r="I20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L20">
         <v>456.56691254080198</v>
@@ -3189,16 +3202,16 @@
         <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
         <v>79</v>
       </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F21">
         <v>0.68711915137544399</v>
@@ -3207,7 +3220,7 @@
         <v>45402</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L21">
         <v>104.05694150421</v>
@@ -3242,16 +3255,16 @@
         <v>169</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
         <v>79</v>
       </c>
-      <c r="D22" t="s">
-        <v>80</v>
-      </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F22">
         <v>0.683545785202747</v>
@@ -3260,7 +3273,7 @@
         <v>45402</v>
       </c>
       <c r="I22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L22">
         <v>104.05694150421</v>
@@ -3295,16 +3308,16 @@
         <v>223</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
         <v>79</v>
       </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F23">
         <v>0.73386491666879505</v>
@@ -3313,7 +3326,7 @@
         <v>45402</v>
       </c>
       <c r="I23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L23">
         <v>104.05694150421</v>
@@ -3348,16 +3361,16 @@
         <v>146</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
         <v>79</v>
       </c>
-      <c r="D24" t="s">
-        <v>80</v>
-      </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F24">
         <v>0.82456860580859603</v>
@@ -3366,7 +3379,7 @@
         <v>45402</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L24">
         <v>80.901699437494798</v>
@@ -3401,16 +3414,16 @@
         <v>254</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
         <v>79</v>
       </c>
-      <c r="D25" t="s">
-        <v>80</v>
-      </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F25">
         <v>0.751148038297487</v>
@@ -3419,7 +3432,7 @@
         <v>45402</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L25">
         <v>115.1387818866</v>
@@ -3454,16 +3467,16 @@
         <v>159</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
         <v>79</v>
       </c>
-      <c r="D26" t="s">
-        <v>80</v>
-      </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F26">
         <v>0.77759400786616295</v>
@@ -3472,7 +3485,7 @@
         <v>45402</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L26">
         <v>95.710678118654798</v>
@@ -3507,16 +3520,16 @@
         <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
         <v>79</v>
       </c>
-      <c r="D27" t="s">
-        <v>80</v>
-      </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F27">
         <v>0.72008358356381497</v>
@@ -3525,7 +3538,7 @@
         <v>45402</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L27">
         <v>80.901699437494798</v>
@@ -3560,16 +3573,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
         <v>79</v>
       </c>
-      <c r="D28" t="s">
-        <v>80</v>
-      </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28">
         <v>0.67215306035353695</v>
@@ -3578,7 +3591,7 @@
         <v>45402</v>
       </c>
       <c r="I28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L28">
         <v>80.901699437494798</v>
@@ -3613,16 +3626,16 @@
         <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29">
         <v>0.75484121735333098</v>
@@ -3631,7 +3644,7 @@
         <v>45402</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L29">
         <v>128.07764064044201</v>
@@ -3666,16 +3679,16 @@
         <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F30">
         <v>0.79329305805149497</v>
@@ -3684,7 +3697,7 @@
         <v>45402</v>
       </c>
       <c r="I30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L30">
         <v>60.355339059327399</v>
@@ -3719,16 +3732,16 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F31">
         <v>0.71955092077233396</v>
@@ -3737,7 +3750,7 @@
         <v>45402</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L31">
         <v>100</v>
@@ -3772,16 +3785,16 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F32">
         <v>0.72874990807992102</v>
@@ -3790,7 +3803,7 @@
         <v>45402</v>
       </c>
       <c r="I32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L32">
         <v>128.07764064044201</v>
@@ -3825,16 +3838,16 @@
         <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F33">
         <v>0.80185483922419498</v>
@@ -3843,7 +3856,7 @@
         <v>45402</v>
       </c>
       <c r="I33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L33">
         <v>80.901699437494798</v>
@@ -3878,16 +3891,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F34">
         <v>0.71968430783558301</v>
@@ -3896,7 +3909,7 @@
         <v>45402</v>
       </c>
       <c r="I34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L34">
         <v>80.901699437494798</v>
@@ -3931,16 +3944,16 @@
         <v>599</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
         <v>82</v>
       </c>
-      <c r="D35" t="s">
-        <v>83</v>
-      </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F35">
         <v>0.746604503615244</v>
@@ -3949,7 +3962,7 @@
         <v>45402</v>
       </c>
       <c r="I35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L35">
         <v>95.710678118654798</v>
@@ -3984,16 +3997,16 @@
         <v>474</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" t="s">
         <v>82</v>
       </c>
-      <c r="D36" t="s">
-        <v>83</v>
-      </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F36">
         <v>0.74366190500853802</v>
@@ -4002,7 +4015,7 @@
         <v>45402</v>
       </c>
       <c r="I36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L36">
         <v>50</v>
@@ -4037,16 +4050,16 @@
         <v>542</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
         <v>82</v>
       </c>
-      <c r="D37" t="s">
-        <v>83</v>
-      </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F37">
         <v>0.72425233668818401</v>
@@ -4055,7 +4068,7 @@
         <v>45402</v>
       </c>
       <c r="I37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L37">
         <v>75</v>
@@ -4090,16 +4103,16 @@
         <v>284</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" t="s">
         <v>82</v>
       </c>
-      <c r="D38" t="s">
-        <v>83</v>
-      </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F38">
         <v>0.70333813773335396</v>
@@ -4108,7 +4121,7 @@
         <v>45402</v>
       </c>
       <c r="I38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L38">
         <v>75</v>
@@ -4143,16 +4156,16 @@
         <v>611</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
         <v>82</v>
       </c>
-      <c r="D39" t="s">
-        <v>83</v>
-      </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F39">
         <v>0.74868757218303394</v>
@@ -4161,7 +4174,7 @@
         <v>45402</v>
       </c>
       <c r="I39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L39">
         <v>50</v>
@@ -4196,16 +4209,16 @@
         <v>614</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
         <v>82</v>
       </c>
-      <c r="D40" t="s">
-        <v>83</v>
-      </c>
       <c r="E40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F40">
         <v>0.774429505903795</v>
@@ -4214,7 +4227,7 @@
         <v>45402</v>
       </c>
       <c r="I40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L40">
         <v>60.355339059327399</v>
@@ -4249,16 +4262,16 @@
         <v>387</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
         <v>82</v>
       </c>
-      <c r="D41" t="s">
-        <v>83</v>
-      </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41">
         <v>0.71467451604666898</v>
@@ -4267,7 +4280,7 @@
         <v>45402</v>
       </c>
       <c r="I41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L41">
         <v>60.355339059327399</v>
@@ -4302,16 +4315,16 @@
         <v>473</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
         <v>82</v>
       </c>
-      <c r="D42" t="s">
-        <v>83</v>
-      </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F42">
         <v>0.70664550735157305</v>
@@ -4320,7 +4333,7 @@
         <v>45402</v>
       </c>
       <c r="I42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L42">
         <v>100</v>
@@ -4355,16 +4368,16 @@
         <v>573</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" t="s">
         <v>82</v>
       </c>
-      <c r="D43" t="s">
-        <v>83</v>
-      </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F43">
         <v>0.68949008698021996</v>
@@ -4373,7 +4386,7 @@
         <v>45402</v>
       </c>
       <c r="I43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L43">
         <v>75</v>
@@ -4408,16 +4421,16 @@
         <v>228</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" t="s">
         <v>82</v>
       </c>
-      <c r="D44" t="s">
-        <v>83</v>
-      </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F44">
         <v>0.66603200517413896</v>
@@ -4426,7 +4439,7 @@
         <v>45402</v>
       </c>
       <c r="I44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L44">
         <v>150</v>
@@ -4461,16 +4474,16 @@
         <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" t="s">
         <v>82</v>
       </c>
-      <c r="D45" t="s">
-        <v>83</v>
-      </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F45">
         <v>0.896277941047115</v>
@@ -4479,7 +4492,7 @@
         <v>45402</v>
       </c>
       <c r="I45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L45">
         <v>60.355339059327399</v>
@@ -4514,16 +4527,16 @@
         <v>609</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" t="s">
         <v>82</v>
       </c>
-      <c r="D46" t="s">
-        <v>83</v>
-      </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F46">
         <v>0.75997778539438898</v>
@@ -4532,7 +4545,7 @@
         <v>45402</v>
       </c>
       <c r="I46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L46">
         <v>136.80339887498999</v>
@@ -4567,16 +4580,16 @@
         <v>213</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" t="s">
         <v>82</v>
       </c>
-      <c r="D47" t="s">
-        <v>83</v>
-      </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F47">
         <v>0.71316751930626499</v>
@@ -4585,7 +4598,7 @@
         <v>45402</v>
       </c>
       <c r="I47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L47">
         <v>50</v>
@@ -4620,16 +4633,16 @@
         <v>333</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" t="s">
         <v>82</v>
       </c>
-      <c r="D48" t="s">
-        <v>83</v>
-      </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F48">
         <v>0.696664206204196</v>
@@ -4638,7 +4651,7 @@
         <v>45402</v>
       </c>
       <c r="I48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L48">
         <v>60.355339059327399</v>
@@ -4673,16 +4686,16 @@
         <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" t="s">
         <v>82</v>
       </c>
-      <c r="D49" t="s">
-        <v>83</v>
-      </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F49">
         <v>0.91167535211779305</v>
@@ -4691,7 +4704,7 @@
         <v>45402</v>
       </c>
       <c r="I49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L49">
         <v>676.920240520265</v>
@@ -4726,16 +4739,16 @@
         <v>603</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" t="s">
         <v>82</v>
       </c>
-      <c r="D50" t="s">
-        <v>83</v>
-      </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F50">
         <v>0.81971261986927602</v>
@@ -4744,7 +4757,7 @@
         <v>45402</v>
       </c>
       <c r="I50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L50">
         <v>150</v>
@@ -4779,16 +4792,16 @@
         <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" t="s">
         <v>82</v>
       </c>
-      <c r="D51" t="s">
-        <v>83</v>
-      </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F51">
         <v>0.76026987611348396</v>
@@ -4797,7 +4810,7 @@
         <v>45402</v>
       </c>
       <c r="I51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L51">
         <v>50</v>
@@ -4832,16 +4845,16 @@
         <v>368</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" t="s">
         <v>82</v>
       </c>
-      <c r="D52" t="s">
-        <v>83</v>
-      </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F52">
         <v>0.67231239025588097</v>
@@ -4850,7 +4863,7 @@
         <v>45402</v>
       </c>
       <c r="I52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L52">
         <v>80.901699437494798</v>
@@ -4885,16 +4898,16 @@
         <v>585</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" t="s">
         <v>82</v>
       </c>
-      <c r="D53" t="s">
-        <v>83</v>
-      </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F53">
         <v>0.88624076771531102</v>
@@ -4903,7 +4916,7 @@
         <v>45402</v>
       </c>
       <c r="I53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L53">
         <v>589.02570863392395</v>
@@ -4938,16 +4951,16 @@
         <v>216</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" t="s">
         <v>82</v>
       </c>
-      <c r="D54" t="s">
-        <v>83</v>
-      </c>
       <c r="E54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F54">
         <v>0.77293140845525399</v>
@@ -4956,7 +4969,7 @@
         <v>45402</v>
       </c>
       <c r="I54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L54">
         <v>220.256241897666</v>
@@ -4991,16 +5004,16 @@
         <v>600</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" t="s">
         <v>82</v>
       </c>
-      <c r="D55" t="s">
-        <v>83</v>
-      </c>
       <c r="E55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F55">
         <v>0.73954616035279697</v>
@@ -5009,7 +5022,7 @@
         <v>45402</v>
       </c>
       <c r="I55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L55">
         <v>50</v>
@@ -5044,16 +5057,16 @@
         <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" t="s">
         <v>82</v>
       </c>
-      <c r="D56" t="s">
-        <v>83</v>
-      </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F56">
         <v>0.96627494516845602</v>
@@ -5062,7 +5075,7 @@
         <v>45402</v>
       </c>
       <c r="I56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L56">
         <v>741.32743909472003</v>
@@ -5097,16 +5110,16 @@
         <v>484</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" t="s">
         <v>82</v>
       </c>
-      <c r="D57" t="s">
-        <v>83</v>
-      </c>
       <c r="E57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F57">
         <v>0.750639685402676</v>
@@ -5115,7 +5128,7 @@
         <v>45402</v>
       </c>
       <c r="I57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L57">
         <v>183.11388300841901</v>
@@ -5150,16 +5163,16 @@
         <v>606</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" t="s">
         <v>82</v>
       </c>
-      <c r="D58" t="s">
-        <v>83</v>
-      </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F58">
         <v>0.84569916808552503</v>
@@ -5168,7 +5181,7 @@
         <v>45402</v>
       </c>
       <c r="I58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L58">
         <v>60.355339059327399</v>
@@ -5203,16 +5216,16 @@
         <v>370</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" t="s">
         <v>82</v>
       </c>
-      <c r="D59" t="s">
-        <v>83</v>
-      </c>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F59">
         <v>0.89200261104893996</v>
@@ -5221,7 +5234,7 @@
         <v>45402</v>
       </c>
       <c r="I59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L59">
         <v>75</v>
@@ -5256,16 +5269,16 @@
         <v>252</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" t="s">
         <v>82</v>
       </c>
-      <c r="D60" t="s">
-        <v>83</v>
-      </c>
       <c r="E60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F60">
         <v>0.96426197571175798</v>
@@ -5274,7 +5287,7 @@
         <v>45402</v>
       </c>
       <c r="I60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L60">
         <v>552.37557774322499</v>
@@ -5309,16 +5322,16 @@
         <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" t="s">
         <v>82</v>
       </c>
-      <c r="D61" t="s">
-        <v>83</v>
-      </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F61">
         <v>0.66799381858601603</v>
@@ -5327,7 +5340,7 @@
         <v>45402</v>
       </c>
       <c r="I61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L61">
         <v>183.11388300841901</v>
@@ -5362,16 +5375,16 @@
         <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" t="s">
         <v>82</v>
       </c>
-      <c r="D62" t="s">
-        <v>83</v>
-      </c>
       <c r="E62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F62">
         <v>0.70265122965287496</v>
@@ -5380,7 +5393,7 @@
         <v>45402</v>
       </c>
       <c r="I62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L62">
         <v>50</v>
@@ -5415,16 +5428,16 @@
         <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" t="s">
         <v>82</v>
       </c>
-      <c r="D63" t="s">
-        <v>83</v>
-      </c>
       <c r="E63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F63">
         <v>0.76537709562704703</v>
@@ -5433,7 +5446,7 @@
         <v>45402</v>
       </c>
       <c r="I63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L63">
         <v>317.61749776799098</v>
@@ -5468,16 +5481,16 @@
         <v>142</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" t="s">
         <v>82</v>
       </c>
-      <c r="D64" t="s">
-        <v>83</v>
-      </c>
       <c r="E64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F64">
         <v>0.69736959541159005</v>
@@ -5486,7 +5499,7 @@
         <v>45402</v>
       </c>
       <c r="I64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L64">
         <v>95.710678118654798</v>
@@ -5521,16 +5534,16 @@
         <v>128</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F65">
         <v>0.70519257984501904</v>
@@ -5539,7 +5552,7 @@
         <v>45402</v>
       </c>
       <c r="I65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L65">
         <v>95.710678118654798</v>
@@ -5574,16 +5587,16 @@
         <v>336</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F66">
         <v>0.70601063311192602</v>
@@ -5592,7 +5605,7 @@
         <v>45402</v>
       </c>
       <c r="I66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L66">
         <v>104.05694150421</v>
@@ -5627,16 +5640,16 @@
         <v>236</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F67">
         <v>0.73867504760960201</v>
@@ -5645,7 +5658,7 @@
         <v>45402</v>
       </c>
       <c r="I67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L67">
         <v>100</v>
@@ -5680,16 +5693,16 @@
         <v>479</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F68">
         <v>0.70052303738142596</v>
@@ -5698,7 +5711,7 @@
         <v>45402</v>
       </c>
       <c r="I68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L68">
         <v>80.901699437494798</v>
@@ -5733,16 +5746,16 @@
         <v>538</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F69">
         <v>0.68939344759237997</v>
@@ -5751,7 +5764,7 @@
         <v>45402</v>
       </c>
       <c r="I69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L69">
         <v>128.07764064044201</v>
@@ -5786,16 +5799,16 @@
         <v>580</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F70">
         <v>0.73146305252812105</v>
@@ -5804,7 +5817,7 @@
         <v>45402</v>
       </c>
       <c r="I70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L70">
         <v>166.42135623730999</v>
@@ -5839,16 +5852,16 @@
         <v>40</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F71">
         <v>0.66300116654006203</v>
@@ -5857,7 +5870,7 @@
         <v>45402</v>
       </c>
       <c r="I71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L71">
         <v>60.355339059327399</v>
@@ -5892,16 +5905,16 @@
         <v>169</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F72">
         <v>0.71690211525621295</v>
@@ -5910,7 +5923,7 @@
         <v>45402</v>
       </c>
       <c r="I72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L72">
         <v>115.1387818866</v>
@@ -5945,16 +5958,16 @@
         <v>373</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F73">
         <v>0.77410668168041297</v>
@@ -5963,7 +5976,7 @@
         <v>45402</v>
       </c>
       <c r="I73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L73">
         <v>50</v>
@@ -5998,16 +6011,16 @@
         <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F74">
         <v>0.73619294064488505</v>
@@ -6016,7 +6029,7 @@
         <v>45402</v>
       </c>
       <c r="I74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L74">
         <v>104.05694150421</v>
@@ -6051,16 +6064,16 @@
         <v>244</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F75">
         <v>0.66264085658177496</v>
@@ -6069,7 +6082,7 @@
         <v>45402</v>
       </c>
       <c r="I75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L75">
         <v>104.05694150421</v>
@@ -6104,16 +6117,16 @@
         <v>335</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F76">
         <v>0.870470124411167</v>
@@ -6122,7 +6135,7 @@
         <v>45402</v>
       </c>
       <c r="I76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L76">
         <v>75</v>
@@ -6157,16 +6170,16 @@
         <v>439</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F77">
         <v>0.86874978291065397</v>
@@ -6175,7 +6188,7 @@
         <v>45402</v>
       </c>
       <c r="I77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L77">
         <v>60.355339059327399</v>
@@ -6210,16 +6223,16 @@
         <v>351</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F78">
         <v>0.83102310247542799</v>
@@ -6228,7 +6241,7 @@
         <v>45402</v>
       </c>
       <c r="I78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L78">
         <v>115.1387818866</v>
@@ -6263,16 +6276,16 @@
         <v>628</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F79">
         <v>0.78700331956629099</v>
@@ -6281,7 +6294,7 @@
         <v>45402</v>
       </c>
       <c r="I79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L79">
         <v>104.05694150421</v>
@@ -6316,16 +6329,16 @@
         <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F80">
         <v>0.95014932349249503</v>
@@ -6334,7 +6347,7 @@
         <v>45402</v>
       </c>
       <c r="I80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L80">
         <v>573.86246000250401</v>
@@ -6369,16 +6382,16 @@
         <v>277</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F81">
         <v>0.94203222213562798</v>
@@ -6387,7 +6400,7 @@
         <v>45402</v>
       </c>
       <c r="I81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L81">
         <v>575.56788863863096</v>
@@ -6422,16 +6435,16 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F82">
         <v>0.68135353261509402</v>
@@ -6440,7 +6453,7 @@
         <v>45402</v>
       </c>
       <c r="I82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L82">
         <v>80.901699437494798</v>
@@ -6475,16 +6488,16 @@
         <v>461</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F83">
         <v>0.79813312002165904</v>
@@ -6493,7 +6506,7 @@
         <v>45402</v>
       </c>
       <c r="I83" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L83">
         <v>75</v>
@@ -6528,16 +6541,16 @@
         <v>132</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F84">
         <v>0.84923609242025</v>
@@ -6546,7 +6559,7 @@
         <v>45402</v>
       </c>
       <c r="I84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L84">
         <v>50</v>
@@ -6581,16 +6594,16 @@
         <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F85">
         <v>0.79352948341643903</v>
@@ -6599,7 +6612,7 @@
         <v>45402</v>
       </c>
       <c r="I85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L85">
         <v>248.60679774997899</v>
@@ -6634,16 +6647,16 @@
         <v>394</v>
       </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F86">
         <v>0.79967666333903198</v>
@@ -6652,7 +6665,7 @@
         <v>45402</v>
       </c>
       <c r="I86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L86">
         <v>159.629120178363</v>
@@ -6687,16 +6700,16 @@
         <v>314</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F87">
         <v>0.73106237639432403</v>
@@ -6705,7 +6718,7 @@
         <v>45402</v>
       </c>
       <c r="I87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L87">
         <v>104.05694150421</v>
@@ -6740,16 +6753,16 @@
         <v>261</v>
       </c>
       <c r="B88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F88">
         <v>0.81538829945727898</v>
@@ -6758,7 +6771,7 @@
         <v>45402</v>
       </c>
       <c r="I88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L88">
         <v>104.05694150421</v>
@@ -6793,16 +6806,16 @@
         <v>177</v>
       </c>
       <c r="B89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F89">
         <v>0.90486829178966399</v>
@@ -6811,7 +6824,7 @@
         <v>45402</v>
       </c>
       <c r="I89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L89">
         <v>555.33008588991095</v>
@@ -6846,16 +6859,16 @@
         <v>438</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F90">
         <v>0.81441443523780599</v>
@@ -6864,7 +6877,7 @@
         <v>45402</v>
       </c>
       <c r="I90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L90">
         <v>100</v>
@@ -6899,16 +6912,16 @@
         <v>379</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F91">
         <v>0.73367113258529604</v>
@@ -6917,7 +6930,7 @@
         <v>45402</v>
       </c>
       <c r="I91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L91">
         <v>128.07764064044201</v>
@@ -6952,16 +6965,16 @@
         <v>180</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F92">
         <v>0.78962669310422196</v>
@@ -6970,7 +6983,7 @@
         <v>45402</v>
       </c>
       <c r="I92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L92">
         <v>50</v>
@@ -7002,16 +7015,16 @@
         <v>274</v>
       </c>
       <c r="B93" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F93">
         <v>0.94572841388881501</v>
@@ -7020,7 +7033,7 @@
         <v>45402</v>
       </c>
       <c r="I93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L93">
         <v>80.901699437494798</v>
@@ -7055,16 +7068,16 @@
         <v>426</v>
       </c>
       <c r="B94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D94" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F94">
         <v>0.70870938049417298</v>
@@ -7073,7 +7086,7 @@
         <v>45402</v>
       </c>
       <c r="I94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L94">
         <v>272.48737341529198</v>
@@ -7108,16 +7121,16 @@
         <v>539</v>
       </c>
       <c r="B95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F95">
         <v>0.80980280098606705</v>
@@ -7126,7 +7139,7 @@
         <v>45402</v>
       </c>
       <c r="I95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L95">
         <v>60.355339059327399</v>
@@ -7161,16 +7174,16 @@
         <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D96" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F96">
         <v>0.72610325444552903</v>
@@ -7179,7 +7192,7 @@
         <v>45402</v>
       </c>
       <c r="I96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L96">
         <v>104.05694150421</v>
@@ -7214,16 +7227,16 @@
         <v>192</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D97" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F97">
         <v>0.77760444021561104</v>
@@ -7232,7 +7245,7 @@
         <v>45402</v>
       </c>
       <c r="I97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L97">
         <v>60.355339059327399</v>
@@ -7267,16 +7280,16 @@
         <v>320</v>
       </c>
       <c r="B98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D98" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F98">
         <v>0.93128767412490199</v>
@@ -7285,7 +7298,7 @@
         <v>45402</v>
       </c>
       <c r="I98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L98">
         <v>573.86246000250401</v>
@@ -7320,16 +7333,16 @@
         <v>556</v>
       </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F99">
         <v>0.87327247427660903</v>
@@ -7338,7 +7351,7 @@
         <v>45402</v>
       </c>
       <c r="I99" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L99">
         <v>104.05694150421</v>
@@ -7373,16 +7386,16 @@
         <v>546</v>
       </c>
       <c r="B100" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F100">
         <v>0.75178909448071796</v>
@@ -7391,7 +7404,7 @@
         <v>45402</v>
       </c>
       <c r="I100" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L100">
         <v>80.901699437494798</v>
@@ -7426,16 +7439,16 @@
         <v>494</v>
       </c>
       <c r="B101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F101">
         <v>0.79838716936259801</v>
@@ -7444,7 +7457,7 @@
         <v>45402</v>
       </c>
       <c r="I101" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L101">
         <v>80.901699437494798</v>
@@ -7479,16 +7492,16 @@
         <v>574</v>
       </c>
       <c r="B102" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D102" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F102">
         <v>0.79828700343030601</v>
@@ -7497,7 +7510,7 @@
         <v>45402</v>
       </c>
       <c r="I102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L102">
         <v>80.901699437494798</v>
@@ -7532,16 +7545,16 @@
         <v>419</v>
       </c>
       <c r="B103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C103" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F103">
         <v>0.75623537350280601</v>
@@ -7550,7 +7563,7 @@
         <v>45402</v>
       </c>
       <c r="I103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L103">
         <v>183.11388300841901</v>
@@ -7585,16 +7598,16 @@
         <v>473</v>
       </c>
       <c r="B104" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C104" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F104">
         <v>0.73878973038492501</v>
@@ -7603,7 +7616,7 @@
         <v>45402</v>
       </c>
       <c r="I104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L104">
         <v>60.355339059327399</v>
@@ -7638,16 +7651,16 @@
         <v>549</v>
       </c>
       <c r="B105" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F105">
         <v>0.73594784443597705</v>
@@ -7656,7 +7669,7 @@
         <v>45402</v>
       </c>
       <c r="I105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L105">
         <v>136.80339887498999</v>
@@ -7691,16 +7704,16 @@
         <v>570</v>
       </c>
       <c r="B106" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F106">
         <v>0.75468677197136602</v>
@@ -7709,7 +7722,7 @@
         <v>45402</v>
       </c>
       <c r="I106" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L106">
         <v>192.70509831248401</v>
@@ -7744,16 +7757,16 @@
         <v>610</v>
       </c>
       <c r="B107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D107" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F107">
         <v>0.69186882038960895</v>
@@ -7762,7 +7775,7 @@
         <v>45402</v>
       </c>
       <c r="I107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L107">
         <v>201.776695296637</v>
@@ -7797,16 +7810,16 @@
         <v>528</v>
       </c>
       <c r="B108" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C108" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F108">
         <v>0.76985051800496096</v>
@@ -7815,7 +7828,7 @@
         <v>45402</v>
       </c>
       <c r="I108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L108">
         <v>50</v>
@@ -7850,16 +7863,16 @@
         <v>630</v>
       </c>
       <c r="B109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C109" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E109" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F109">
         <v>0.74597432550086995</v>
@@ -7868,7 +7881,7 @@
         <v>45402</v>
       </c>
       <c r="I109" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L109">
         <v>80.901699437494798</v>
@@ -7903,16 +7916,16 @@
         <v>123</v>
       </c>
       <c r="B110" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C110" t="s">
+        <v>84</v>
+      </c>
+      <c r="D110" t="s">
         <v>85</v>
       </c>
-      <c r="D110" t="s">
-        <v>86</v>
-      </c>
       <c r="E110" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F110">
         <v>0.70779458873258105</v>
@@ -7921,7 +7934,7 @@
         <v>45402</v>
       </c>
       <c r="I110" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L110">
         <v>50</v>
@@ -7956,16 +7969,16 @@
         <v>341</v>
       </c>
       <c r="B111" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C111" t="s">
+        <v>84</v>
+      </c>
+      <c r="D111" t="s">
         <v>85</v>
       </c>
-      <c r="D111" t="s">
-        <v>86</v>
-      </c>
       <c r="E111" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F111">
         <v>0.703822363578544</v>
@@ -7974,7 +7987,7 @@
         <v>45402</v>
       </c>
       <c r="I111" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L111">
         <v>60.355339059327399</v>
@@ -8009,16 +8022,16 @@
         <v>342</v>
       </c>
       <c r="B112" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C112" t="s">
+        <v>84</v>
+      </c>
+      <c r="D112" t="s">
         <v>85</v>
       </c>
-      <c r="D112" t="s">
-        <v>86</v>
-      </c>
       <c r="E112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F112">
         <v>0.67237763437612796</v>
@@ -8027,7 +8040,7 @@
         <v>45402</v>
       </c>
       <c r="I112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L112">
         <v>75</v>
@@ -8062,16 +8075,16 @@
         <v>353</v>
       </c>
       <c r="B113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C113" t="s">
+        <v>84</v>
+      </c>
+      <c r="D113" t="s">
         <v>85</v>
       </c>
-      <c r="D113" t="s">
-        <v>86</v>
-      </c>
       <c r="E113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F113">
         <v>0.72398412259928202</v>
@@ -8080,7 +8093,7 @@
         <v>45402</v>
       </c>
       <c r="I113" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L113">
         <v>80.901699437494798</v>
@@ -8115,16 +8128,16 @@
         <v>427</v>
       </c>
       <c r="B114" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C114" t="s">
+        <v>84</v>
+      </c>
+      <c r="D114" t="s">
         <v>85</v>
       </c>
-      <c r="D114" t="s">
-        <v>86</v>
-      </c>
       <c r="E114" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F114">
         <v>0.67623537848835602</v>
@@ -8133,7 +8146,7 @@
         <v>45402</v>
       </c>
       <c r="I114" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L114">
         <v>152.47548783982</v>
@@ -8168,16 +8181,16 @@
         <v>332</v>
       </c>
       <c r="B115" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C115" t="s">
+        <v>84</v>
+      </c>
+      <c r="D115" t="s">
         <v>85</v>
       </c>
-      <c r="D115" t="s">
-        <v>86</v>
-      </c>
       <c r="E115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F115">
         <v>0.75527939434515301</v>
@@ -8186,7 +8199,7 @@
         <v>45402</v>
       </c>
       <c r="I115" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L115">
         <v>136.80339887498999</v>
@@ -8221,16 +8234,16 @@
         <v>520</v>
       </c>
       <c r="B116" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C116" t="s">
+        <v>84</v>
+      </c>
+      <c r="D116" t="s">
         <v>85</v>
       </c>
-      <c r="D116" t="s">
-        <v>86</v>
-      </c>
       <c r="E116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F116">
         <v>0.74293824708908396</v>
@@ -8239,7 +8252,7 @@
         <v>45402</v>
       </c>
       <c r="I116" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L116">
         <v>152.47548783982</v>
@@ -8274,16 +8287,16 @@
         <v>477</v>
       </c>
       <c r="B117" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C117" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" t="s">
         <v>85</v>
       </c>
-      <c r="D117" t="s">
-        <v>86</v>
-      </c>
       <c r="E117" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F117">
         <v>0.74547600408926795</v>
@@ -8292,7 +8305,7 @@
         <v>45402</v>
       </c>
       <c r="I117" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L117">
         <v>128.07764064044201</v>
@@ -8327,16 +8340,16 @@
         <v>147</v>
       </c>
       <c r="B118" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C118" t="s">
+        <v>84</v>
+      </c>
+      <c r="D118" t="s">
         <v>85</v>
       </c>
-      <c r="D118" t="s">
-        <v>86</v>
-      </c>
       <c r="E118" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F118">
         <v>0.70315014456929903</v>
@@ -8345,7 +8358,7 @@
         <v>45402</v>
       </c>
       <c r="I118" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L118">
         <v>131.06601717798199</v>
@@ -8380,16 +8393,16 @@
         <v>243</v>
       </c>
       <c r="B119" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C119" t="s">
+        <v>84</v>
+      </c>
+      <c r="D119" t="s">
         <v>85</v>
       </c>
-      <c r="D119" t="s">
-        <v>86</v>
-      </c>
       <c r="E119" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F119">
         <v>0.68128293304180698</v>
@@ -8398,7 +8411,7 @@
         <v>45402</v>
       </c>
       <c r="I119" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L119">
         <v>50</v>
@@ -8433,16 +8446,16 @@
         <v>239</v>
       </c>
       <c r="B120" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C120" t="s">
+        <v>84</v>
+      </c>
+      <c r="D120" t="s">
         <v>85</v>
       </c>
-      <c r="D120" t="s">
-        <v>86</v>
-      </c>
       <c r="E120" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F120">
         <v>0.75242536863853504</v>
@@ -8451,7 +8464,7 @@
         <v>45402</v>
       </c>
       <c r="I120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L120">
         <v>50</v>
@@ -8486,16 +8499,16 @@
         <v>228</v>
       </c>
       <c r="B121" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C121" t="s">
+        <v>84</v>
+      </c>
+      <c r="D121" t="s">
         <v>85</v>
       </c>
-      <c r="D121" t="s">
-        <v>86</v>
-      </c>
       <c r="E121" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F121">
         <v>0.72074211714020797</v>
@@ -8504,7 +8517,7 @@
         <v>45402</v>
       </c>
       <c r="I121" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L121">
         <v>150</v>
@@ -8539,16 +8552,16 @@
         <v>449</v>
       </c>
       <c r="B122" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C122" t="s">
+        <v>84</v>
+      </c>
+      <c r="D122" t="s">
         <v>85</v>
       </c>
-      <c r="D122" t="s">
-        <v>86</v>
-      </c>
       <c r="E122" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F122">
         <v>0.91890937100485504</v>
@@ -8557,7 +8570,7 @@
         <v>45402</v>
       </c>
       <c r="I122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L122">
         <v>550</v>
@@ -8592,16 +8605,16 @@
         <v>219</v>
       </c>
       <c r="B123" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C123" t="s">
+        <v>84</v>
+      </c>
+      <c r="D123" t="s">
         <v>85</v>
       </c>
-      <c r="D123" t="s">
-        <v>86</v>
-      </c>
       <c r="E123" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F123">
         <v>0.70352986004053897</v>
@@ -8610,7 +8623,7 @@
         <v>45402</v>
       </c>
       <c r="I123" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L123">
         <v>248.60679774997899</v>
@@ -8645,16 +8658,16 @@
         <v>360</v>
       </c>
       <c r="B124" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C124" t="s">
+        <v>84</v>
+      </c>
+      <c r="D124" t="s">
         <v>85</v>
       </c>
-      <c r="D124" t="s">
-        <v>86</v>
-      </c>
       <c r="E124" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F124">
         <v>0.68423396770031997</v>
@@ -8663,7 +8676,7 @@
         <v>45402</v>
       </c>
       <c r="I124" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L124">
         <v>80.901699437494798</v>
@@ -8698,16 +8711,16 @@
         <v>401</v>
       </c>
       <c r="B125" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C125" t="s">
+        <v>84</v>
+      </c>
+      <c r="D125" t="s">
         <v>85</v>
       </c>
-      <c r="D125" t="s">
-        <v>86</v>
-      </c>
       <c r="E125" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F125">
         <v>0.722481044003353</v>
@@ -8716,7 +8729,7 @@
         <v>45402</v>
       </c>
       <c r="I125" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L125">
         <v>152.47548783982</v>
@@ -8751,16 +8764,16 @@
         <v>203</v>
       </c>
       <c r="B126" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C126" t="s">
+        <v>84</v>
+      </c>
+      <c r="D126" t="s">
         <v>85</v>
       </c>
-      <c r="D126" t="s">
-        <v>86</v>
-      </c>
       <c r="E126" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F126">
         <v>0.72100497287102605</v>
@@ -8769,7 +8782,7 @@
         <v>45402</v>
       </c>
       <c r="I126" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L126">
         <v>170.77379737113301</v>
@@ -8804,16 +8817,16 @@
         <v>34</v>
       </c>
       <c r="B127" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C127" t="s">
+        <v>84</v>
+      </c>
+      <c r="D127" t="s">
         <v>85</v>
       </c>
-      <c r="D127" t="s">
-        <v>86</v>
-      </c>
       <c r="E127" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F127">
         <v>0.66892366872258302</v>
@@ -8822,7 +8835,7 @@
         <v>45402</v>
       </c>
       <c r="I127" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L127">
         <v>104.05694150421</v>
@@ -8857,16 +8870,16 @@
         <v>560</v>
       </c>
       <c r="B128" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C128" t="s">
+        <v>84</v>
+      </c>
+      <c r="D128" t="s">
         <v>85</v>
       </c>
-      <c r="D128" t="s">
-        <v>86</v>
-      </c>
       <c r="E128" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F128">
         <v>0.73361605312656597</v>
@@ -8875,7 +8888,7 @@
         <v>45402</v>
       </c>
       <c r="I128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L128">
         <v>60.355339059327399</v>
@@ -8910,16 +8923,16 @@
         <v>567</v>
       </c>
       <c r="B129" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C129" t="s">
+        <v>84</v>
+      </c>
+      <c r="D129" t="s">
         <v>85</v>
       </c>
-      <c r="D129" t="s">
-        <v>86</v>
-      </c>
       <c r="E129" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F129">
         <v>0.69629684653875301</v>
@@ -8928,7 +8941,7 @@
         <v>45402</v>
       </c>
       <c r="I129" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L129">
         <v>80.901699437494798</v>
@@ -8963,16 +8976,16 @@
         <v>426</v>
       </c>
       <c r="B130" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C130" t="s">
+        <v>84</v>
+      </c>
+      <c r="D130" t="s">
         <v>85</v>
       </c>
-      <c r="D130" t="s">
-        <v>86</v>
-      </c>
       <c r="E130" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F130">
         <v>0.72517328502381095</v>
@@ -8981,7 +8994,7 @@
         <v>45402</v>
       </c>
       <c r="I130" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L130">
         <v>115.1387818866</v>
@@ -9016,16 +9029,16 @@
         <v>457</v>
       </c>
       <c r="B131" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C131" t="s">
+        <v>84</v>
+      </c>
+      <c r="D131" t="s">
         <v>85</v>
       </c>
-      <c r="D131" t="s">
-        <v>86</v>
-      </c>
       <c r="E131" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F131">
         <v>0.816011439300111</v>
@@ -9034,7 +9047,7 @@
         <v>45402</v>
       </c>
       <c r="I131" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L131">
         <v>201.776695296637</v>
@@ -9069,16 +9082,16 @@
         <v>564</v>
       </c>
       <c r="B132" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C132" t="s">
+        <v>84</v>
+      </c>
+      <c r="D132" t="s">
         <v>85</v>
       </c>
-      <c r="D132" t="s">
-        <v>86</v>
-      </c>
       <c r="E132" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F132">
         <v>0.66770753648718595</v>
@@ -9087,7 +9100,7 @@
         <v>45402</v>
       </c>
       <c r="I132" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L132">
         <v>150</v>
@@ -9122,16 +9135,16 @@
         <v>408</v>
       </c>
       <c r="B133" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C133" t="s">
+        <v>84</v>
+      </c>
+      <c r="D133" t="s">
         <v>85</v>
       </c>
-      <c r="D133" t="s">
-        <v>86</v>
-      </c>
       <c r="E133" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F133">
         <v>0.66175111482182303</v>
@@ -9140,7 +9153,7 @@
         <v>45402</v>
       </c>
       <c r="I133" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L133">
         <v>60.355339059327399</v>
@@ -9175,16 +9188,16 @@
         <v>459</v>
       </c>
       <c r="B134" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C134" t="s">
+        <v>84</v>
+      </c>
+      <c r="D134" t="s">
         <v>85</v>
       </c>
-      <c r="D134" t="s">
-        <v>86</v>
-      </c>
       <c r="E134" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F134">
         <v>0.66032305898236299</v>
@@ -9193,7 +9206,7 @@
         <v>45402</v>
       </c>
       <c r="I134" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L134">
         <v>136.80339887498999</v>
@@ -9228,16 +9241,16 @@
         <v>487</v>
       </c>
       <c r="B135" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C135" t="s">
+        <v>84</v>
+      </c>
+      <c r="D135" t="s">
         <v>85</v>
       </c>
-      <c r="D135" t="s">
-        <v>86</v>
-      </c>
       <c r="E135" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F135">
         <v>0.730228344182977</v>
@@ -9246,7 +9259,7 @@
         <v>45402</v>
       </c>
       <c r="I135" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L135">
         <v>75</v>
@@ -9281,16 +9294,16 @@
         <v>584</v>
       </c>
       <c r="B136" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C136" t="s">
+        <v>84</v>
+      </c>
+      <c r="D136" t="s">
         <v>85</v>
       </c>
-      <c r="D136" t="s">
-        <v>86</v>
-      </c>
       <c r="E136" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F136">
         <v>0.68016878197936503</v>
@@ -9299,7 +9312,7 @@
         <v>45402</v>
       </c>
       <c r="I136" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L136">
         <v>115.1387818866</v>
@@ -9334,16 +9347,16 @@
         <v>162</v>
       </c>
       <c r="B137" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C137" t="s">
+        <v>84</v>
+      </c>
+      <c r="D137" t="s">
         <v>85</v>
       </c>
-      <c r="D137" t="s">
-        <v>86</v>
-      </c>
       <c r="E137" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F137">
         <v>0.72813152569947004</v>
@@ -9352,7 +9365,7 @@
         <v>45402</v>
       </c>
       <c r="I137" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L137">
         <v>170.77379737113301</v>
@@ -9387,16 +9400,16 @@
         <v>305</v>
       </c>
       <c r="B138" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E138" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F138">
         <v>0.83232348796493505</v>
@@ -9405,7 +9418,7 @@
         <v>45402</v>
       </c>
       <c r="I138" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L138">
         <v>159.629120178363</v>
@@ -9440,16 +9453,16 @@
         <v>301</v>
       </c>
       <c r="B139" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C139" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E139" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F139">
         <v>0.69125458286470198</v>
@@ -9458,7 +9471,7 @@
         <v>45402</v>
       </c>
       <c r="I139" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L139">
         <v>100</v>
@@ -9493,16 +9506,16 @@
         <v>274</v>
       </c>
       <c r="B140" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C140" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E140" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F140">
         <v>0.68259429170404595</v>
@@ -9511,7 +9524,7 @@
         <v>45402</v>
       </c>
       <c r="I140" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L140">
         <v>104.05694150421</v>
@@ -9546,16 +9559,16 @@
         <v>122</v>
       </c>
       <c r="B141" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D141" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E141" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F141">
         <v>0.75181208678559297</v>
@@ -9564,7 +9577,7 @@
         <v>45402</v>
       </c>
       <c r="I141" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L141">
         <v>150</v>
@@ -9599,16 +9612,16 @@
         <v>79</v>
       </c>
       <c r="B142" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C142" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D142" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E142" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F142">
         <v>0.961096954886833</v>
@@ -9617,7 +9630,7 @@
         <v>45402</v>
       </c>
       <c r="I142" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L142">
         <v>531.21141828291502</v>
@@ -9652,16 +9665,16 @@
         <v>76</v>
       </c>
       <c r="B143" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C143" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D143" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E143" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F143">
         <v>0.67289509423189997</v>
@@ -9670,7 +9683,7 @@
         <v>45402</v>
       </c>
       <c r="I143" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L143">
         <v>80.901699437494798</v>
@@ -9705,16 +9718,16 @@
         <v>278</v>
       </c>
       <c r="B144" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C144" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D144" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E144" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F144">
         <v>0.68604419461632604</v>
@@ -9723,7 +9736,7 @@
         <v>45402</v>
       </c>
       <c r="I144" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L144">
         <v>115.1387818866</v>
@@ -9758,16 +9771,16 @@
         <v>46</v>
       </c>
       <c r="B145" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C145" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D145" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E145" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F145">
         <v>0.690387432814489</v>
@@ -9776,7 +9789,7 @@
         <v>45402</v>
       </c>
       <c r="I145" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L145">
         <v>95.710678118654798</v>
@@ -9811,16 +9824,16 @@
         <v>346</v>
       </c>
       <c r="B146" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C146" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D146" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E146" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F146">
         <v>0.72983997116774502</v>
@@ -9829,7 +9842,7 @@
         <v>45402</v>
       </c>
       <c r="I146" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L146">
         <v>95.710678118654798</v>
@@ -9864,16 +9877,16 @@
         <v>378</v>
       </c>
       <c r="B147" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C147" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D147" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E147" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F147">
         <v>0.95077540149718298</v>
@@ -9882,7 +9895,7 @@
         <v>45402</v>
       </c>
       <c r="I147" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L147">
         <v>610.23499553598106</v>
@@ -9917,16 +9930,16 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C148" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D148" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E148" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F148">
         <v>0.77597734676066699</v>
@@ -9935,7 +9948,7 @@
         <v>45402</v>
       </c>
       <c r="I148" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L148">
         <v>310.04385627478501</v>
@@ -9970,16 +9983,16 @@
         <v>377</v>
       </c>
       <c r="B149" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C149" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D149" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E149" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F149">
         <v>0.95012789535967401</v>
@@ -9988,7 +10001,7 @@
         <v>45402</v>
       </c>
       <c r="I149" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L149">
         <v>365.036762718386</v>
@@ -10023,16 +10036,16 @@
         <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C150" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D150" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E150" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F150">
         <v>0.75068075465240403</v>
@@ -10041,7 +10054,7 @@
         <v>45402</v>
       </c>
       <c r="I150" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L150">
         <v>201.776695296637</v>
@@ -10076,16 +10089,16 @@
         <v>241</v>
       </c>
       <c r="B151" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C151" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D151" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E151" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F151">
         <v>0.95844342376786595</v>
@@ -10094,7 +10107,7 @@
         <v>45402</v>
       </c>
       <c r="I151" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L151">
         <v>490.026880943457</v>
@@ -10129,16 +10142,16 @@
         <v>304</v>
       </c>
       <c r="B152" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C152" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D152" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E152" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F152">
         <v>0.71482373923422404</v>
@@ -10147,7 +10160,7 @@
         <v>45402</v>
       </c>
       <c r="I152" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L152">
         <v>80.901699437494798</v>
@@ -10182,16 +10195,16 @@
         <v>293</v>
       </c>
       <c r="B153" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C153" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D153" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E153" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F153">
         <v>0.68032635313650203</v>
@@ -10200,7 +10213,7 @@
         <v>45402</v>
       </c>
       <c r="I153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L153">
         <v>185.07810593582099</v>
@@ -10235,16 +10248,16 @@
         <v>28</v>
       </c>
       <c r="B154" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C154" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D154" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E154" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F154">
         <v>0.73137638926452297</v>
@@ -10253,7 +10266,7 @@
         <v>45402</v>
       </c>
       <c r="I154" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L154">
         <v>183.11388300841901</v>
@@ -10288,16 +10301,16 @@
         <v>49</v>
       </c>
       <c r="B155" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C155" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D155" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E155" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F155">
         <v>0.76409417922085399</v>
@@ -10306,7 +10319,7 @@
         <v>45402</v>
       </c>
       <c r="I155" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L155">
         <v>192.70509831248401</v>
@@ -10341,16 +10354,16 @@
         <v>262</v>
       </c>
       <c r="B156" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C156" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D156" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E156" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F156">
         <v>0.67025450728205704</v>
@@ -10359,7 +10372,7 @@
         <v>45402</v>
       </c>
       <c r="I156" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L156">
         <v>50</v>
@@ -10394,16 +10407,16 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C157" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D157" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E157" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F157">
         <v>0.72686972867072497</v>
@@ -10412,7 +10425,7 @@
         <v>45402</v>
       </c>
       <c r="I157" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L157">
         <v>136.80339887498999</v>
@@ -10447,16 +10460,16 @@
         <v>81</v>
       </c>
       <c r="B158" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C158" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D158" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E158" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F158">
         <v>0.670865513678642</v>
@@ -10465,7 +10478,7 @@
         <v>45402</v>
       </c>
       <c r="I158" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L158">
         <v>150</v>
@@ -10500,16 +10513,16 @@
         <v>118</v>
       </c>
       <c r="B159" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C159" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D159" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E159" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F159">
         <v>0.75400955618658005</v>
@@ -10518,7 +10531,7 @@
         <v>45402</v>
       </c>
       <c r="I159" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L159">
         <v>159.629120178363</v>
@@ -10553,16 +10566,16 @@
         <v>96</v>
       </c>
       <c r="B160" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C160" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D160" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E160" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F160">
         <v>0.67700742875373598</v>
@@ -10571,7 +10584,7 @@
         <v>45402</v>
       </c>
       <c r="I160" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L160">
         <v>75</v>
@@ -10606,16 +10619,16 @@
         <v>156</v>
       </c>
       <c r="B161" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C161" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D161" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E161" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F161">
         <v>0.73968155060313101</v>
@@ -10624,7 +10637,7 @@
         <v>45402</v>
       </c>
       <c r="I161" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L161">
         <v>484.61940777125602</v>
@@ -10659,16 +10672,16 @@
         <v>237</v>
       </c>
       <c r="B162" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C162" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D162" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E162" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F162">
         <v>0.79236844544594798</v>
@@ -10677,7 +10690,7 @@
         <v>45402</v>
       </c>
       <c r="I162" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L162">
         <v>60.355339059327399</v>
@@ -10712,16 +10725,16 @@
         <v>13</v>
       </c>
       <c r="B163" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C163" t="s">
+        <v>87</v>
+      </c>
+      <c r="D163" t="s">
         <v>88</v>
       </c>
-      <c r="D163" t="s">
-        <v>89</v>
-      </c>
       <c r="E163" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F163">
         <v>0.94808466893209697</v>
@@ -10730,7 +10743,7 @@
         <v>45402</v>
       </c>
       <c r="I163" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L163">
         <v>505.88460154178398</v>
@@ -10765,16 +10778,16 @@
         <v>18</v>
       </c>
       <c r="B164" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C164" t="s">
+        <v>87</v>
+      </c>
+      <c r="D164" t="s">
         <v>88</v>
       </c>
-      <c r="D164" t="s">
-        <v>89</v>
-      </c>
       <c r="E164" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F164">
         <v>0.70870838422211102</v>
@@ -10783,7 +10796,7 @@
         <v>45402</v>
       </c>
       <c r="I164" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L164">
         <v>60.355339059327399</v>
@@ -10818,16 +10831,16 @@
         <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C165" t="s">
+        <v>87</v>
+      </c>
+      <c r="D165" t="s">
         <v>88</v>
       </c>
-      <c r="D165" t="s">
-        <v>89</v>
-      </c>
       <c r="E165" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F165">
         <v>0.79225366629835603</v>
@@ -10836,7 +10849,7 @@
         <v>45402</v>
       </c>
       <c r="I165" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L165">
         <v>50</v>
@@ -10871,16 +10884,16 @@
         <v>78</v>
       </c>
       <c r="B166" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C166" t="s">
+        <v>87</v>
+      </c>
+      <c r="D166" t="s">
         <v>88</v>
       </c>
-      <c r="D166" t="s">
-        <v>89</v>
-      </c>
       <c r="E166" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F166">
         <v>0.69463383573729498</v>
@@ -10889,7 +10902,7 @@
         <v>45402</v>
       </c>
       <c r="I166" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L166">
         <v>50</v>
@@ -10924,16 +10937,16 @@
         <v>39</v>
       </c>
       <c r="B167" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C167" t="s">
+        <v>87</v>
+      </c>
+      <c r="D167" t="s">
         <v>88</v>
       </c>
-      <c r="D167" t="s">
-        <v>89</v>
-      </c>
       <c r="E167" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F167">
         <v>0.72011622353053995</v>
@@ -10942,7 +10955,7 @@
         <v>45402</v>
       </c>
       <c r="I167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L167">
         <v>95.710678118654798</v>
@@ -10977,16 +10990,16 @@
         <v>29</v>
       </c>
       <c r="B168" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C168" t="s">
+        <v>87</v>
+      </c>
+      <c r="D168" t="s">
         <v>88</v>
       </c>
-      <c r="D168" t="s">
-        <v>89</v>
-      </c>
       <c r="E168" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F168">
         <v>0.72776727781025197</v>
@@ -10995,7 +11008,7 @@
         <v>45402</v>
       </c>
       <c r="I168" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L168">
         <v>150</v>
@@ -11030,16 +11043,16 @@
         <v>23</v>
       </c>
       <c r="B169" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C169" t="s">
+        <v>87</v>
+      </c>
+      <c r="D169" t="s">
         <v>88</v>
       </c>
-      <c r="D169" t="s">
-        <v>89</v>
-      </c>
       <c r="E169" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F169">
         <v>0.72429806803832097</v>
@@ -11048,7 +11061,7 @@
         <v>45402</v>
       </c>
       <c r="I169" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L169">
         <v>50</v>
@@ -11083,16 +11096,16 @@
         <v>14</v>
       </c>
       <c r="B170" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C170" t="s">
+        <v>87</v>
+      </c>
+      <c r="D170" t="s">
         <v>88</v>
       </c>
-      <c r="D170" t="s">
-        <v>89</v>
-      </c>
       <c r="E170" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F170">
         <v>0.87439204644450097</v>
@@ -11101,7 +11114,7 @@
         <v>45402</v>
       </c>
       <c r="I170" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L170">
         <v>726.78344238090995</v>
@@ -11136,16 +11149,16 @@
         <v>4</v>
       </c>
       <c r="B171" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C171" t="s">
+        <v>87</v>
+      </c>
+      <c r="D171" t="s">
         <v>88</v>
       </c>
-      <c r="D171" t="s">
-        <v>89</v>
-      </c>
       <c r="E171" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F171">
         <v>0.73260901359145003</v>
@@ -11154,7 +11167,7 @@
         <v>45402</v>
       </c>
       <c r="I171" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L171">
         <v>80.901699437494798</v>
@@ -11189,16 +11202,16 @@
         <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C172" t="s">
+        <v>87</v>
+      </c>
+      <c r="D172" t="s">
         <v>88</v>
       </c>
-      <c r="D172" t="s">
-        <v>89</v>
-      </c>
       <c r="E172" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F172">
         <v>0.73076362234526104</v>
@@ -11207,7 +11220,7 @@
         <v>45402</v>
       </c>
       <c r="I172" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L172">
         <v>150</v>
@@ -11242,16 +11255,16 @@
         <v>28</v>
       </c>
       <c r="B173" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C173" t="s">
+        <v>87</v>
+      </c>
+      <c r="D173" t="s">
         <v>88</v>
       </c>
-      <c r="D173" t="s">
-        <v>89</v>
-      </c>
       <c r="E173" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F173">
         <v>0.68916346090868197</v>
@@ -11260,7 +11273,7 @@
         <v>45402</v>
       </c>
       <c r="I173" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L173">
         <v>80.901699437494798</v>
@@ -11295,16 +11308,16 @@
         <v>64</v>
       </c>
       <c r="B174" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C174" t="s">
+        <v>87</v>
+      </c>
+      <c r="D174" t="s">
         <v>88</v>
       </c>
-      <c r="D174" t="s">
-        <v>89</v>
-      </c>
       <c r="E174" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F174">
         <v>0.71192632579955695</v>
@@ -11313,7 +11326,7 @@
         <v>45402</v>
       </c>
       <c r="I174" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L174">
         <v>75</v>
@@ -11348,16 +11361,16 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C175" t="s">
+        <v>87</v>
+      </c>
+      <c r="D175" t="s">
         <v>88</v>
       </c>
-      <c r="D175" t="s">
-        <v>89</v>
-      </c>
       <c r="E175" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F175">
         <v>0.74793456170554495</v>
@@ -11366,7 +11379,7 @@
         <v>45402</v>
       </c>
       <c r="I175" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L175">
         <v>60.355339059327399</v>
@@ -11401,16 +11414,16 @@
         <v>44</v>
       </c>
       <c r="B176" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C176" t="s">
+        <v>87</v>
+      </c>
+      <c r="D176" t="s">
         <v>88</v>
       </c>
-      <c r="D176" t="s">
-        <v>89</v>
-      </c>
       <c r="E176" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F176">
         <v>0.71541013694725597</v>
@@ -11419,7 +11432,7 @@
         <v>45402</v>
       </c>
       <c r="I176" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L176">
         <v>50</v>
@@ -11454,16 +11467,16 @@
         <v>55</v>
       </c>
       <c r="B177" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C177" t="s">
+        <v>87</v>
+      </c>
+      <c r="D177" t="s">
         <v>88</v>
       </c>
-      <c r="D177" t="s">
-        <v>89</v>
-      </c>
       <c r="E177" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F177">
         <v>0.74105803483314303</v>
@@ -11472,7 +11485,7 @@
         <v>45402</v>
       </c>
       <c r="I177" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L177">
         <v>60.355339059327399</v>
@@ -11507,16 +11520,16 @@
         <v>19</v>
       </c>
       <c r="B178" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C178" t="s">
+        <v>87</v>
+      </c>
+      <c r="D178" t="s">
         <v>88</v>
       </c>
-      <c r="D178" t="s">
-        <v>89</v>
-      </c>
       <c r="E178" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F178">
         <v>0.71162986680250995</v>
@@ -11525,7 +11538,7 @@
         <v>45402</v>
       </c>
       <c r="I178" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L178">
         <v>128.07764064044201</v>
@@ -11560,16 +11573,16 @@
         <v>52</v>
       </c>
       <c r="B179" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C179" t="s">
+        <v>87</v>
+      </c>
+      <c r="D179" t="s">
         <v>88</v>
       </c>
-      <c r="D179" t="s">
-        <v>89</v>
-      </c>
       <c r="E179" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F179">
         <v>0.95023019687723298</v>
@@ -11578,7 +11591,7 @@
         <v>45402</v>
       </c>
       <c r="I179" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L179">
         <v>650.49980015983999</v>
@@ -11613,16 +11626,16 @@
         <v>43</v>
       </c>
       <c r="B180" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C180" t="s">
+        <v>87</v>
+      </c>
+      <c r="D180" t="s">
         <v>88</v>
       </c>
-      <c r="D180" t="s">
-        <v>89</v>
-      </c>
       <c r="E180" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F180">
         <v>0.72200888611598502</v>
@@ -11631,7 +11644,7 @@
         <v>45402</v>
       </c>
       <c r="I180" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L180">
         <v>60.355339059327399</v>
@@ -11666,16 +11679,16 @@
         <v>7</v>
       </c>
       <c r="B181" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C181" t="s">
+        <v>87</v>
+      </c>
+      <c r="D181" t="s">
         <v>88</v>
       </c>
-      <c r="D181" t="s">
-        <v>89</v>
-      </c>
       <c r="E181" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F181">
         <v>0.75080831150576699</v>
@@ -11684,7 +11697,7 @@
         <v>45402</v>
       </c>
       <c r="I181" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L181">
         <v>95.710678118654798</v>
@@ -11719,16 +11732,16 @@
         <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C182" t="s">
+        <v>87</v>
+      </c>
+      <c r="D182" t="s">
         <v>88</v>
       </c>
-      <c r="D182" t="s">
-        <v>89</v>
-      </c>
       <c r="E182" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F182">
         <v>0.74563457958755597</v>
@@ -11737,7 +11750,7 @@
         <v>45402</v>
       </c>
       <c r="I182" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L182">
         <v>286.007662722764</v>
@@ -11772,16 +11785,16 @@
         <v>58</v>
       </c>
       <c r="B183" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C183" t="s">
+        <v>87</v>
+      </c>
+      <c r="D183" t="s">
         <v>88</v>
       </c>
-      <c r="D183" t="s">
-        <v>89</v>
-      </c>
       <c r="E183" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F183">
         <v>0.71611691595801097</v>
@@ -11790,7 +11803,7 @@
         <v>45402</v>
       </c>
       <c r="I183" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L183">
         <v>192.70509831248401</v>
@@ -11825,16 +11838,16 @@
         <v>72</v>
       </c>
       <c r="B184" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C184" t="s">
+        <v>87</v>
+      </c>
+      <c r="D184" t="s">
         <v>88</v>
       </c>
-      <c r="D184" t="s">
-        <v>89</v>
-      </c>
       <c r="E184" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F184">
         <v>0.72539714560847801</v>
@@ -11843,7 +11856,7 @@
         <v>45402</v>
       </c>
       <c r="I184" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L184">
         <v>159.629120178363</v>
@@ -11878,16 +11891,16 @@
         <v>65</v>
       </c>
       <c r="B185" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C185" t="s">
+        <v>87</v>
+      </c>
+      <c r="D185" t="s">
         <v>88</v>
       </c>
-      <c r="D185" t="s">
-        <v>89</v>
-      </c>
       <c r="E185" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F185">
         <v>0.72468450957544195</v>
@@ -11896,7 +11909,7 @@
         <v>45402</v>
       </c>
       <c r="I185" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L185">
         <v>104.05694150421</v>
@@ -11931,16 +11944,16 @@
         <v>15</v>
       </c>
       <c r="B186" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C186" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D186" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E186" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F186">
         <v>0.76433616932895698</v>
@@ -11949,7 +11962,7 @@
         <v>45402</v>
       </c>
       <c r="I186" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L186">
         <v>100</v>
@@ -11984,16 +11997,16 @@
         <v>46</v>
       </c>
       <c r="B187" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C187" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D187" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E187" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F187">
         <v>0.92431934299857998</v>
@@ -12002,7 +12015,7 @@
         <v>45402</v>
       </c>
       <c r="I187" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L187">
         <v>552.37557774322499</v>
@@ -12037,16 +12050,16 @@
         <v>28</v>
       </c>
       <c r="B188" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C188" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D188" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E188" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F188">
         <v>0.67565080184799198</v>
@@ -12055,7 +12068,7 @@
         <v>45402</v>
       </c>
       <c r="I188" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L188">
         <v>104.05694150421</v>
@@ -12090,16 +12103,16 @@
         <v>3</v>
       </c>
       <c r="B189" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C189" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D189" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E189" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F189">
         <v>0.70959290264973296</v>
@@ -12108,7 +12121,7 @@
         <v>45402</v>
       </c>
       <c r="I189" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L189">
         <v>104.05694150421</v>
@@ -12143,16 +12156,16 @@
         <v>80</v>
       </c>
       <c r="B190" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C190" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D190" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E190" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F190">
         <v>0.73541888717328896</v>
@@ -12161,7 +12174,7 @@
         <v>45402</v>
       </c>
       <c r="I190" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L190">
         <v>50</v>
@@ -12196,16 +12209,16 @@
         <v>49</v>
       </c>
       <c r="B191" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C191" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D191" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E191" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F191">
         <v>0.75796017582636199</v>
@@ -12214,7 +12227,7 @@
         <v>45402</v>
       </c>
       <c r="I191" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L191">
         <v>159.629120178363</v>
@@ -12249,16 +12262,16 @@
         <v>26</v>
       </c>
       <c r="B192" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C192" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D192" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E192" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F192">
         <v>0.72740067453507495</v>
@@ -12267,7 +12280,7 @@
         <v>45402</v>
       </c>
       <c r="I192" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L192">
         <v>104.05694150421</v>
@@ -12302,16 +12315,16 @@
         <v>48</v>
       </c>
       <c r="B193" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C193" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D193" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E193" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F193">
         <v>0.72127374027329805</v>
@@ -12320,7 +12333,7 @@
         <v>45402</v>
       </c>
       <c r="I193" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L193">
         <v>60.355339059327399</v>
@@ -12355,16 +12368,16 @@
         <v>44</v>
       </c>
       <c r="B194" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C194" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D194" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E194" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F194">
         <v>0.67496712320722496</v>
@@ -12373,7 +12386,7 @@
         <v>45402</v>
       </c>
       <c r="I194" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L194">
         <v>75</v>
@@ -12408,16 +12421,16 @@
         <v>52</v>
       </c>
       <c r="B195" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C195" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D195" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E195" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F195">
         <v>0.75230596679061501</v>
@@ -12426,7 +12439,7 @@
         <v>45402</v>
       </c>
       <c r="I195" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L195">
         <v>80.901699437494798</v>
@@ -12461,16 +12474,16 @@
         <v>45</v>
       </c>
       <c r="B196" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C196" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D196" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E196" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F196">
         <v>0.95030632992821096</v>
@@ -12479,7 +12492,7 @@
         <v>45402</v>
       </c>
       <c r="I196" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L196">
         <v>657.94944505860803</v>
@@ -12514,16 +12527,16 @@
         <v>35</v>
       </c>
       <c r="B197" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C197" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D197" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E197" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F197">
         <v>0.77933862823804201</v>
@@ -12532,7 +12545,7 @@
         <v>45402</v>
       </c>
       <c r="I197" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L197">
         <v>60.355339059327399</v>
@@ -12567,16 +12580,16 @@
         <v>75</v>
       </c>
       <c r="B198" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C198" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D198" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E198" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F198">
         <v>0.71189442651638002</v>
@@ -12585,7 +12598,7 @@
         <v>45402</v>
       </c>
       <c r="I198" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L198">
         <v>136.80339887498999</v>
@@ -12620,16 +12633,16 @@
         <v>47</v>
       </c>
       <c r="B199" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C199" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D199" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E199" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F199">
         <v>0.728070085909166</v>
@@ -12638,7 +12651,7 @@
         <v>45402</v>
       </c>
       <c r="I199" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L199">
         <v>60.355339059327399</v>
@@ -12673,16 +12686,16 @@
         <v>69</v>
       </c>
       <c r="B200" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C200" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D200" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E200" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F200">
         <v>0.77512896943562304</v>
@@ -12691,7 +12704,7 @@
         <v>45402</v>
       </c>
       <c r="I200" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L200">
         <v>80.901699437494798</v>
@@ -12726,16 +12739,16 @@
         <v>62</v>
       </c>
       <c r="B201" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C201" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D201" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E201" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F201">
         <v>0.79574309155881995</v>
@@ -12744,7 +12757,7 @@
         <v>45402</v>
       </c>
       <c r="I201" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L201">
         <v>115.1387818866</v>
@@ -12776,13 +12789,13 @@
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B202" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C202" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D202" t="s">
         <v>52</v>
@@ -12794,7 +12807,7 @@
         <v>45402</v>
       </c>
       <c r="I202" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L202" t="s">
         <v>52</v>
@@ -12820,13 +12833,13 @@
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B203" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C203" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D203" t="s">
         <v>52</v>
@@ -12838,7 +12851,7 @@
         <v>45402</v>
       </c>
       <c r="I203" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L203" t="s">
         <v>52</v>
@@ -12849,13 +12862,13 @@
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B204" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C204" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D204" t="s">
         <v>52</v>
@@ -12867,18 +12880,18 @@
         <v>45402</v>
       </c>
       <c r="I204" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B205" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C205" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D205" t="s">
         <v>52</v>
@@ -12890,18 +12903,18 @@
         <v>45402</v>
       </c>
       <c r="I205" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B206" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C206" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D206" t="s">
         <v>52</v>
@@ -12913,18 +12926,18 @@
         <v>45402</v>
       </c>
       <c r="I206" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B207" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C207" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D207" t="s">
         <v>52</v>
@@ -12936,18 +12949,18 @@
         <v>45402</v>
       </c>
       <c r="I207" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B208" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C208" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D208" t="s">
         <v>52</v>
@@ -12959,18 +12972,18 @@
         <v>45402</v>
       </c>
       <c r="I208" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B209" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C209" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D209" t="s">
         <v>52</v>
@@ -12982,18 +12995,18 @@
         <v>45402</v>
       </c>
       <c r="I209" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B210" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C210" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D210" t="s">
         <v>52</v>
@@ -13005,18 +13018,18 @@
         <v>45402</v>
       </c>
       <c r="I210" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B211" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C211" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D211" t="s">
         <v>52</v>
@@ -13028,18 +13041,18 @@
         <v>45402</v>
       </c>
       <c r="I211" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B212" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C212" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D212" t="s">
         <v>52</v>
@@ -13051,18 +13064,18 @@
         <v>45402</v>
       </c>
       <c r="I212" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B213" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C213" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D213" t="s">
         <v>52</v>
@@ -13074,18 +13087,18 @@
         <v>45402</v>
       </c>
       <c r="I213" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B214" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C214" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D214" t="s">
         <v>52</v>
@@ -13097,18 +13110,18 @@
         <v>45402</v>
       </c>
       <c r="I214" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B215" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C215" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D215" t="s">
         <v>52</v>
@@ -13120,18 +13133,18 @@
         <v>45402</v>
       </c>
       <c r="I215" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B216" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C216" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D216" t="s">
         <v>52</v>
@@ -13143,18 +13156,18 @@
         <v>45402</v>
       </c>
       <c r="I216" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B217" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C217" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D217" t="s">
         <v>52</v>
@@ -13166,18 +13179,18 @@
         <v>45402</v>
       </c>
       <c r="I217" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B218" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C218" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D218" t="s">
         <v>52</v>
@@ -13189,18 +13202,18 @@
         <v>45402</v>
       </c>
       <c r="I218" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B219" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C219" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D219" t="s">
         <v>52</v>
@@ -13212,18 +13225,18 @@
         <v>45402</v>
       </c>
       <c r="I219" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B220" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C220" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D220" t="s">
         <v>52</v>
@@ -13235,18 +13248,18 @@
         <v>45402</v>
       </c>
       <c r="I220" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B221" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C221" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D221" t="s">
         <v>52</v>
@@ -13258,18 +13271,18 @@
         <v>45402</v>
       </c>
       <c r="I221" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B222" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C222" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D222" t="s">
         <v>52</v>
@@ -13281,18 +13294,18 @@
         <v>45402</v>
       </c>
       <c r="I222" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B223" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C223" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D223" t="s">
         <v>52</v>
@@ -13304,18 +13317,18 @@
         <v>45402</v>
       </c>
       <c r="I223" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B224" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C224" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D224" t="s">
         <v>52</v>
@@ -13327,18 +13340,18 @@
         <v>45402</v>
       </c>
       <c r="I224" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B225" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C225" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D225" t="s">
         <v>52</v>
@@ -13350,18 +13363,18 @@
         <v>45402</v>
       </c>
       <c r="I225" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B226" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C226" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D226" t="s">
         <v>52</v>
@@ -13373,18 +13386,18 @@
         <v>45402</v>
       </c>
       <c r="I226" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B227" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C227" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D227" t="s">
         <v>52</v>
@@ -13396,18 +13409,18 @@
         <v>45402</v>
       </c>
       <c r="I227" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B228" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C228" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D228" t="s">
         <v>52</v>
@@ -13419,18 +13432,18 @@
         <v>45402</v>
       </c>
       <c r="I228" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B229" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C229" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D229" t="s">
         <v>52</v>
@@ -13442,18 +13455,18 @@
         <v>45402</v>
       </c>
       <c r="I229" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B230" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C230" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D230" t="s">
         <v>52</v>
@@ -13465,18 +13478,18 @@
         <v>45402</v>
       </c>
       <c r="I230" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B231" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C231" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D231" t="s">
         <v>52</v>
@@ -13488,18 +13501,18 @@
         <v>45402</v>
       </c>
       <c r="I231" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B232" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C232" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D232" t="s">
         <v>52</v>
@@ -13511,18 +13524,18 @@
         <v>45402</v>
       </c>
       <c r="I232" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B233" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C233" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D233" t="s">
         <v>52</v>
@@ -13534,18 +13547,18 @@
         <v>45402</v>
       </c>
       <c r="I233" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B234" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C234" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D234" t="s">
         <v>52</v>
@@ -13557,18 +13570,18 @@
         <v>45402</v>
       </c>
       <c r="I234" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B235" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C235" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D235" t="s">
         <v>52</v>
@@ -13580,18 +13593,18 @@
         <v>45402</v>
       </c>
       <c r="I235" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B236" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C236" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D236" t="s">
         <v>52</v>
@@ -13603,18 +13616,18 @@
         <v>45402</v>
       </c>
       <c r="I236" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B237" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C237" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D237" t="s">
         <v>52</v>
@@ -13626,18 +13639,18 @@
         <v>45402</v>
       </c>
       <c r="I237" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B238" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C238" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D238" t="s">
         <v>52</v>
@@ -13649,18 +13662,18 @@
         <v>45402</v>
       </c>
       <c r="I238" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B239" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C239" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D239" t="s">
         <v>52</v>
@@ -13672,18 +13685,18 @@
         <v>45402</v>
       </c>
       <c r="I239" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B240" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C240" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D240" t="s">
         <v>52</v>
@@ -13695,18 +13708,18 @@
         <v>45402</v>
       </c>
       <c r="I240" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B241" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C241" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D241" t="s">
         <v>52</v>
@@ -13718,18 +13731,18 @@
         <v>45402</v>
       </c>
       <c r="I241" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B242" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C242" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D242" t="s">
         <v>52</v>
@@ -13741,7 +13754,7 @@
         <v>45402</v>
       </c>
       <c r="I242" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
